--- a/SimulatedData-new/Exogeneus/ALLINONE_Exogenous_Results.xlsx
+++ b/SimulatedData-new/Exogeneus/ALLINONE_Exogenous_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pietro\Desktop\Pietro\Politecnico\Tesi\Thesis-Code\SimulatedData-new\Exogeneus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6901001-C09C-4EE2-A8A1-2199DFC275BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F71B24-0548-4B33-AEE9-3B9DDF4D9326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>n1 =  98 , p/n =  0.1 , QR AR(1)</t>
   </si>
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47:K48"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46:K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1890,9 +1890,6 @@
       <c r="G47">
         <v>5.3380000000000101E-2</v>
       </c>
-      <c r="K47" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -1915,9 +1912,6 @@
       </c>
       <c r="G48">
         <v>4.8714285714286402E-3</v>
-      </c>
-      <c r="K48" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
